--- a/发票/采购清单.xlsx
+++ b/发票/采购清单.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4D5F5-D52F-40D5-B5F2-953A6F9FF80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="14400" windowHeight="7373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03004（laserstrap）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,22 +152,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>frontbase+slider（两种）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锥齿轮+蜗轮蜗杆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图纸，大齿轮1，小齿轮蜗轮蜗杆各2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontbase+slider（两种）+Motorsupport_final</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,6 +299,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,26 +543,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="49.86328125" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" customWidth="1"/>
+    <col min="4" max="4" width="30.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.1328125" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" customWidth="1"/>
+    <col min="7" max="7" width="26.1328125" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -577,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -597,7 +628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -617,9 +648,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -634,13 +665,13 @@
         <v>652</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -660,26 +691,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1000</v>
-      </c>
-      <c r="H7" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -688,12 +722,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>

--- a/发票/采购清单.xlsx
+++ b/发票/采购清单.xlsx
@@ -1,198 +1,496 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A4D5F5-D52F-40D5-B5F2-953A6F9FF80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="705" windowWidth="14400" windowHeight="7373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18520" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采购人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否收货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已收货</t>
   </si>
   <si>
     <t>发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝杆步进电机</t>
+  </si>
+  <si>
+    <t>150/200各2台</t>
+  </si>
+  <si>
+    <t>易俊杰</t>
+  </si>
+  <si>
+    <t>亿星科技一站式工控电气配套</t>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易俊杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝杆步进电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150/200各2台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿星科技一站式工控电气配套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>氮气弹簧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>400N 6根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上海祥黎机电设备有限公司</t>
   </si>
   <si>
-    <t>上海祥黎机电设备有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正科电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易俊杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2台</t>
   </si>
   <si>
     <t>zhengk旗舰店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮箱+StepperSupport_back</t>
+  </si>
+  <si>
+    <t>图纸，尼龙</t>
+  </si>
+  <si>
+    <t>秋观旗舰店</t>
+  </si>
+  <si>
+    <t>可</t>
+  </si>
+  <si>
+    <t>避震器伸缩杆</t>
+  </si>
+  <si>
+    <t>中心距300，行程70，6根</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>frontbase+slider（两种）+Motorsupport_final</t>
   </si>
   <si>
     <t>图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋观旗舰店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>避震器伸缩杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易俊杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中心距300，行程70，6根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸，尼龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03004（laserstrap）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易俊杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齿轮箱+StepperSupport_back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>锥齿轮+蜗轮蜗杆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图纸，大齿轮1，小齿轮蜗轮蜗杆各2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frontbase+slider（两种）+Motorsupport_final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后长螺栓共8根</t>
+  </si>
+  <si>
+    <t>邵昊南</t>
+  </si>
+  <si>
+    <t>远航五金原材料店</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -200,24 +498,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,7 +856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,26 +889,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,23 +924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,204 +1094,228 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="49.86328125" customWidth="1"/>
-    <col min="2" max="2" width="29.86328125" customWidth="1"/>
-    <col min="3" max="3" width="7.53125" customWidth="1"/>
-    <col min="4" max="4" width="30.796875" customWidth="1"/>
-    <col min="5" max="5" width="7.1328125" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" customWidth="1"/>
-    <col min="7" max="7" width="26.1328125" customWidth="1"/>
-    <col min="8" max="8" width="22.796875" customWidth="1"/>
+    <col min="1" max="1" width="48.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.13636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1363636363636" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.8" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1">
+        <v>346</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>346</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>209</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>652</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1194</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2510</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E11" s="1">
+        <v>520</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E5">
-        <v>652</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>1194</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2510</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/发票/采购清单.xlsx
+++ b/发票/采购清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>名称</t>
   </si>
@@ -109,13 +109,28 @@
     <t>图纸，大齿轮1，小齿轮蜗轮蜗杆各2</t>
   </si>
   <si>
-    <t>前后长螺栓共8根</t>
+    <t>前后长不锈钢杆共8根</t>
   </si>
   <si>
     <t>邵昊南</t>
   </si>
   <si>
-    <t>远航五金原材料店</t>
+    <t>中琳机械加工中心</t>
+  </si>
+  <si>
+    <t>取消了镀铬</t>
+  </si>
+  <si>
+    <t>碳纤维板ForwardPanel、ControlPanel</t>
+  </si>
+  <si>
+    <t>河北多点碳纤维</t>
+  </si>
+  <si>
+    <t>可(电子)</t>
+  </si>
+  <si>
+    <t>哈长伟开价160元</t>
   </si>
 </sst>
 </file>
@@ -123,12 +138,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +167,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,89 +281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -265,32 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,181 +313,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,11 +507,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,32 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,167 +599,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1290,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1304,13 +1312,42 @@
         <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/发票/采购清单.xlsx
+++ b/发票/采购清单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大三上\设计与制造2\项目\乌龟\branches\Project_investigation\发票\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18516" windowHeight="7728"/>
+    <workbookView windowWidth="18520" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>名称</t>
   </si>
@@ -60,6 +55,9 @@
     <t>是</t>
   </si>
   <si>
+    <t>有</t>
+  </si>
+  <si>
     <t>氮气弹簧</t>
   </si>
   <si>
@@ -111,47 +109,17 @@
     <t>锥齿轮+蜗轮蜗杆</t>
   </si>
   <si>
-    <t>前后长不锈钢杆共8根</t>
-  </si>
-  <si>
-    <t>邵昊南</t>
-  </si>
-  <si>
-    <t>中琳机械加工中心</t>
-  </si>
-  <si>
-    <t>取消了镀铬</t>
-  </si>
-  <si>
-    <t>碳纤维板ForwardPanel、ControlPanel</t>
-  </si>
-  <si>
-    <t>河北多点碳纤维</t>
-  </si>
-  <si>
-    <t>可(电子)</t>
-  </si>
-  <si>
-    <t>哈长伟开价160元</t>
-  </si>
-  <si>
-    <t>02012轴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易俊杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>图纸，尼龙，大齿轮1，小齿轮蜗轮蜗杆各2</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>打印1</t>
     </r>
     <r>
@@ -159,24 +127,60 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>85，机加工900</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸，尼龙，大齿轮1，小齿轮蜗轮蜗杆各2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02012轴</t>
+  </si>
+  <si>
+    <t>前后长不锈钢杆共8根</t>
+  </si>
+  <si>
+    <t>邵昊南</t>
+  </si>
+  <si>
+    <t>中琳机械加工中心</t>
+  </si>
+  <si>
+    <t>取消了镀铬</t>
+  </si>
+  <si>
+    <t>碳纤维板ForwardPanel、ControlPanel</t>
+  </si>
+  <si>
+    <t>河北多点碳纤维</t>
+  </si>
+  <si>
+    <t>可(电子)</t>
+  </si>
+  <si>
+    <t>哈长伟开价160元</t>
+  </si>
+  <si>
+    <t>7075铝轴 TCR-MS-02012</t>
+  </si>
+  <si>
+    <t>TCR-MS-02012</t>
+  </si>
+  <si>
+    <t>可，但不包发票</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,29 +197,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -223,9 +550,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -235,21 +804,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -536,32 +1149,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="48.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5545454545455" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.3363636363636" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.10909090909091" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1090909090909" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7818181818182" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -607,21 +1220,21 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>209</v>
@@ -630,18 +1243,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>77</v>
@@ -650,18 +1263,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>652</v>
@@ -670,140 +1283,163 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>1194</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>2510</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1">
         <v>480</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>196</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/发票/采购清单.xlsx
+++ b/发票/采购清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>名称</t>
   </si>
@@ -67,6 +67,9 @@
     <t>上海祥黎机电设备有限公司</t>
   </si>
   <si>
+    <t>纸质</t>
+  </si>
+  <si>
     <t>正科电机</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>zhengk旗舰店</t>
   </si>
   <si>
+    <t>图片</t>
+  </si>
+  <si>
     <t>齿轮箱+StepperSupport_back</t>
   </si>
   <si>
@@ -94,9 +100,6 @@
     <t>中心距300，行程70，6根</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>frontbase+slider（两种）+Motorsupport_final</t>
   </si>
   <si>
@@ -104,6 +107,12 @@
   </si>
   <si>
     <t>03004（laserstrap）</t>
+  </si>
+  <si>
+    <t>卓思达五金塑料加工厂</t>
+  </si>
+  <si>
+    <t>电子</t>
   </si>
   <si>
     <t>锥齿轮+蜗轮蜗杆</t>
@@ -134,22 +143,19 @@
     </r>
   </si>
   <si>
-    <t>02012轴</t>
-  </si>
-  <si>
-    <t>前后长不锈钢杆共8根</t>
+    <t>铝合金支撑腿</t>
+  </si>
+  <si>
+    <t>图纸，4*4=16根</t>
+  </si>
+  <si>
+    <t>和8同单</t>
+  </si>
+  <si>
+    <t>碳纤维板ForwardPanel、ControlPanel</t>
   </si>
   <si>
     <t>邵昊南</t>
-  </si>
-  <si>
-    <t>中琳机械加工中心</t>
-  </si>
-  <si>
-    <t>取消了镀铬</t>
-  </si>
-  <si>
-    <t>碳纤维板ForwardPanel、ControlPanel</t>
   </si>
   <si>
     <t>河北多点碳纤维</t>
@@ -175,12 +181,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,12 +204,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -211,39 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,84 +308,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,6 +356,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,19 +392,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,151 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +547,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,24 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,20 +641,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -804,7 +803,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1223,7 +1222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,39 +1241,45 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>652</v>
@@ -1283,15 +1288,15 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -1303,138 +1308,148 @@
         <v>1194</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>2510</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>185</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1">
-        <v>480</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1">
-        <v>196</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
